--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,18 +43,12 @@
     <t>crude</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,94 +64,100 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>love</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
+    <t>nice</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
+    <t>positive</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>support</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>relief</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>store</t>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -524,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -532,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -593,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -611,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -643,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>0.9375</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7647058823529411</v>
+        <v>0.5924657534246576</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.925</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -743,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7207792207792207</v>
+        <v>0.1937984496124031</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>416</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4583333333333333</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8518518518518519</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.369098712446352</v>
+        <v>0.1409395973154362</v>
       </c>
       <c r="C8">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8431372549019608</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2441860465116279</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,119 +914,71 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
+      <c r="M9">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.7890625</v>
+      </c>
+      <c r="L10">
+        <v>101</v>
+      </c>
+      <c r="M10">
+        <v>101</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K9">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L9">
-        <v>47</v>
-      </c>
-      <c r="M9">
-        <v>47</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.225</v>
-      </c>
-      <c r="C10">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>62</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L10">
-        <v>22</v>
-      </c>
-      <c r="M10">
-        <v>22</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,21 +990,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1061,21 +1016,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1087,21 +1042,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7450980392156863</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1113,21 +1068,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.72</v>
+        <v>0.69375</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1139,21 +1094,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7058823529411765</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L16">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="M16">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1165,21 +1120,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>0.6808510638297872</v>
+      </c>
+      <c r="L17">
         <v>32</v>
       </c>
-      <c r="K17">
-        <v>0.7058823529411765</v>
-      </c>
-      <c r="L17">
-        <v>12</v>
-      </c>
       <c r="M17">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1191,21 +1146,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6923076923076923</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1222,16 +1177,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6712328767123288</v>
+        <v>0.66</v>
       </c>
       <c r="L19">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1243,21 +1198,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6666666666666666</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1269,21 +1224,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6538461538461539</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L21">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M21">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1295,21 +1250,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.5774647887323944</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L22">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="M22">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1321,21 +1276,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.5416666666666666</v>
+        <v>0.5625</v>
       </c>
       <c r="L23">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1347,21 +1302,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.5357142857142857</v>
+        <v>0.5221932114882507</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1373,21 +1328,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.4806201550387597</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="L25">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="M25">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1399,21 +1354,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>67</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.48</v>
+        <v>0.4823529411764706</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1425,21 +1380,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.4666666666666667</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1451,21 +1406,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.4583333333333333</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L28">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1477,21 +1432,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.4571428571428571</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L29">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1503,21 +1458,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.4021739130434783</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L30">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="M30">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1529,21 +1484,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.4</v>
+        <v>0.3389121338912134</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>81</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1555,21 +1510,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.3783783783783784</v>
+        <v>0.3384615384615385</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1581,21 +1536,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.03658536585365853</v>
+        <v>0.3125</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1607,21 +1562,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>395</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.0352112676056338</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1633,33 +1588,111 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>411</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35">
+        <v>0.04031354983202688</v>
+      </c>
+      <c r="L35">
+        <v>36</v>
+      </c>
+      <c r="M35">
+        <v>37</v>
+      </c>
+      <c r="N35">
+        <v>0.97</v>
+      </c>
+      <c r="O35">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K36">
+        <v>0.03107658157602664</v>
+      </c>
+      <c r="L36">
+        <v>28</v>
+      </c>
+      <c r="M36">
+        <v>28</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K35">
-        <v>0.009803921568627451</v>
-      </c>
-      <c r="L35">
-        <v>11</v>
-      </c>
-      <c r="M35">
-        <v>12</v>
-      </c>
-      <c r="N35">
-        <v>0.92</v>
-      </c>
-      <c r="O35">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>1111</v>
+      <c r="K37">
+        <v>0.01073762838468721</v>
+      </c>
+      <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>24</v>
+      </c>
+      <c r="N37">
+        <v>0.96</v>
+      </c>
+      <c r="O37">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K38">
+        <v>0.009339774557165861</v>
+      </c>
+      <c r="L38">
+        <v>29</v>
+      </c>
+      <c r="M38">
+        <v>31</v>
+      </c>
+      <c r="N38">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O38">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>3076</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,12 +55,6 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -82,82 +76,79 @@
     <t>thanks</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>store</t>
@@ -527,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,10 +526,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -596,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9117647058823529</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -614,19 +605,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -638,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -646,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6111111111111112</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +655,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9491525423728814</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5924657534246576</v>
+        <v>0.5684931506849316</v>
       </c>
       <c r="C5">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D5">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -714,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -767,16 +758,16 @@
         <v>416</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.8913043478260869</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1746031746031746</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,10 +805,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K7">
         <v>0.8482142857142857</v>
@@ -842,91 +833,43 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L8">
+        <v>69</v>
+      </c>
+      <c r="M8">
+        <v>69</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>0.1409395973154362</v>
-      </c>
-      <c r="C8">
-        <v>21</v>
-      </c>
-      <c r="D8">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>128</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.8170731707317073</v>
-      </c>
-      <c r="L8">
-        <v>67</v>
-      </c>
-      <c r="M8">
-        <v>67</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.0873015873015873</v>
-      </c>
-      <c r="C9">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>230</v>
-      </c>
       <c r="J9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8148148148148148</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,21 +881,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.7890625</v>
+        <v>0.8125</v>
       </c>
       <c r="L10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M10">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -964,21 +907,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.7586206896551724</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -990,21 +933,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7333333333333333</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L12">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="M12">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1016,21 +959,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7183098591549296</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L13">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M13">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1042,21 +985,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7169811320754716</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L14">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M14">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1068,21 +1011,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.69375</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1094,21 +1037,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.6862745098039216</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1120,21 +1063,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6808510638297872</v>
+        <v>0.7</v>
       </c>
       <c r="L17">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1146,21 +1089,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.68</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1172,21 +1115,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.66</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1198,21 +1141,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6388888888888888</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L20">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1224,21 +1167,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.6276595744680851</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L21">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M21">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1250,21 +1193,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.6031746031746031</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1276,12 +1219,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K23">
         <v>0.5625</v>
@@ -1307,16 +1250,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5221932114882507</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L24">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="M24">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1328,21 +1271,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>183</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.4915254237288136</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L25">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="M25">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1354,21 +1297,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>150</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.4823529411764706</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L26">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1380,21 +1323,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>176</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4606741573033708</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1406,21 +1349,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>48</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4520547945205479</v>
+        <v>0.4542372881355932</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>134</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1432,21 +1375,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>40</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>0.4444444444444444</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1458,21 +1401,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>0.4102564102564102</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1484,21 +1427,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>0.3389121338912134</v>
+        <v>0.3849372384937239</v>
       </c>
       <c r="L31">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="M31">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1510,21 +1453,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.3384615384615385</v>
+        <v>0.328125</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1541,16 +1484,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.3125</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1562,21 +1505,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K34">
-        <v>0.2714285714285714</v>
+        <v>0.04026845637583892</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1588,111 +1531,85 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>51</v>
+        <v>858</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K35">
-        <v>0.04031354983202688</v>
+        <v>0.02552719200887902</v>
       </c>
       <c r="L35">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="M35">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>857</v>
+        <v>878</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K36">
-        <v>0.03107658157602664</v>
+        <v>0.01355773726040206</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>873</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K37">
-        <v>0.01073762838468721</v>
+        <v>0.008054123711340205</v>
       </c>
       <c r="L37">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N37">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="O37">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P37" t="b">
         <v>1</v>
       </c>
       <c r="Q37">
-        <v>2119</v>
-      </c>
-    </row>
-    <row r="38" spans="10:17">
-      <c r="J38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K38">
-        <v>0.009339774557165861</v>
-      </c>
-      <c r="L38">
-        <v>29</v>
-      </c>
-      <c r="M38">
-        <v>31</v>
-      </c>
-      <c r="N38">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O38">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P38" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q38">
-        <v>3076</v>
+        <v>3079</v>
       </c>
     </row>
   </sheetData>
